--- a/biology/Neurosciences/Oskar_Vogt/Oskar_Vogt.xlsx
+++ b/biology/Neurosciences/Oskar_Vogt/Oskar_Vogt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oskar Vogt, né le 6 avril 1870 à Husum, dans la province du Schleswig-Holstein, et mort le 31 juillet 1959 à Fribourg-en-Brisgau est un neuroscientifique allemand.
 </t>
@@ -511,11 +523,13 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'ascendance pour moitié danoise et allemande, il étudie l'histologie à Kiel, puis à Iéna et consacre sa thèse au corps calleux. Il travaille avec Otto Binswanger la neuroanatomie et la clinique psychiatrique. Il collabore ensuite à Zurich avec Auguste Forel et s'intéresse à l'hypnose : il fonde avec Sigmund Freud la revue Zeitschrift für Hypnotismus.
 Il se brouille à Leipzig avec Flechsig et va terminer sa formation en 1897-1898 auprès de Dejerine à Paris. C'est là qu'il rencontre Cécile Mugnier, qu'il épouse en 1899. Grâce au soutien de la famille d'industriels Krupp (les « marchands de canons »), dont il avait soigné un membre, il fonde à Berlin en 1900 un centre de recherche neurologique, la « Neurologische Zentralstation » qui devient en 1902 le « Neurologisches Laboratorium », rattaché à l'université de Berlin. Ce centre abritera notamment les travaux de cytoarchitectonie du cortex de Korbinian Brodmann (alors que le couple Vogt se consacre à la myéloarchitectonie), ainsi que les recherches de Bielschowsky recruté en 1904. Vogt devient en 1911 professeur et directeur du Kaiser Wilhelm Institut für Hirnforschung à Berlin.
-Vogt est resté célèbre pour avoir disséqué et décrit la structure histologique du cerveau de Lénine[1].
+Vogt est resté célèbre pour avoir disséqué et décrit la structure histologique du cerveau de Lénine.
 À côté de sa carrière neuroscientifique, Oskar Vogt, comme Forel s'intéressait à l'entomologie : il fut spécialiste des bourdons.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de)Zur Kenntniss des Wesens und der psychologischen Bedeutung des HypnotismusJohann Ambrosius Barth, 1895.
 (de)«Die myeloarchitektonische Felderung des menschlichen Stirnhirns», in: J Psychol Neurol, 1910, vol. 15, no 4/5, p. 221-232 Texte intégral
@@ -581,9 +597,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Syndrome de Vogt et Vogt[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome de Vogt et Vogt</t>
         </is>
       </c>
     </row>
